--- a/raw_data/20200818_saline/20200818_Sensor2_Test_18.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_18.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5AB54-8CF8-4EF1-9E58-CD1A1FDC4B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>15674.472323</v>
       </c>
       <c r="B2" s="1">
-        <v>4.354020</v>
+        <v>4.3540200000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1242.540000</v>
+        <v>1242.54</v>
       </c>
       <c r="D2" s="1">
-        <v>-307.882000</v>
+        <v>-307.88200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>15684.866943</v>
+        <v>15684.866943000001</v>
       </c>
       <c r="G2" s="1">
-        <v>4.356907</v>
+        <v>4.3569069999999996</v>
       </c>
       <c r="H2" s="1">
-        <v>1267.350000</v>
+        <v>1267.3499999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.990000</v>
+        <v>-264.99</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>15695.336003</v>
       </c>
       <c r="L2" s="1">
-        <v>4.359816</v>
+        <v>4.3598160000000004</v>
       </c>
       <c r="M2" s="1">
-        <v>1302.300000</v>
+        <v>1302.3</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.407000</v>
+        <v>-202.40700000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>15705.801463</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.362723</v>
+        <v>4.3627229999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1313.800000</v>
+        <v>1313.8</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.301000</v>
+        <v>-184.30099999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>15716.368855</v>
+        <v>15716.368855000001</v>
       </c>
       <c r="V2" s="1">
-        <v>4.365658</v>
+        <v>4.3656579999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1326.580000</v>
+        <v>1326.58</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.666000</v>
+        <v>-170.666</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>15726.806664</v>
@@ -556,28 +972,28 @@
         <v>4.368557</v>
       </c>
       <c r="AB2" s="1">
-        <v>1343.520000</v>
+        <v>1343.52</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.717000</v>
+        <v>-168.71700000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>15737.695370</v>
+        <v>15737.695369999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.371582</v>
+        <v>4.3715820000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1356.190000</v>
+        <v>1356.19</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.646000</v>
+        <v>-178.64599999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>15748.125214</v>
@@ -586,315 +1002,315 @@
         <v>4.374479</v>
       </c>
       <c r="AL2" s="1">
-        <v>1376.650000</v>
+        <v>1376.65</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.944000</v>
+        <v>-208.94399999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>15758.679583</v>
+        <v>15758.679582999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.377411</v>
+        <v>4.3774110000000004</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1398.220000</v>
+        <v>1398.22</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.215000</v>
+        <v>-253.215</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>15769.667492</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.380463</v>
+        <v>4.3804629999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1422.730000</v>
+        <v>1422.73</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.627000</v>
+        <v>-313.62700000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>15780.956403</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.383599</v>
+        <v>4.3835990000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1442.080000</v>
+        <v>1442.08</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.125000</v>
+        <v>-366.125</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>15791.799977</v>
+        <v>15791.799977000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.386611</v>
+        <v>4.3866110000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1527.640000</v>
+        <v>1527.64</v>
       </c>
       <c r="BG2" s="1">
-        <v>-616.081000</v>
+        <v>-616.08100000000002</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>15803.008535</v>
+        <v>15803.008535000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.389725</v>
+        <v>4.3897250000000003</v>
       </c>
       <c r="BK2" s="1">
-        <v>1682.520000</v>
+        <v>1682.52</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1064.110000</v>
+        <v>-1064.1099999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>15813.404182</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.392612</v>
+        <v>4.3926119999999997</v>
       </c>
       <c r="BP2" s="1">
-        <v>1978.690000</v>
+        <v>1978.69</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1840.300000</v>
+        <v>-1840.3</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>15823.761145</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.395489</v>
+        <v>4.3954890000000004</v>
       </c>
       <c r="BU2" s="1">
-        <v>2367.110000</v>
+        <v>2367.11</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2737.830000</v>
+        <v>-2737.83</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>15834.425131</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.398451</v>
+        <v>4.3984509999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2857.420000</v>
+        <v>2857.42</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3714.710000</v>
+        <v>-3714.71</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>15845.413995</v>
+        <v>15845.413995000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.401504</v>
+        <v>4.4015040000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4294.950000</v>
+        <v>4294.95</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6059.420000</v>
+        <v>-6059.42</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>15674.847319</v>
       </c>
       <c r="B3" s="1">
-        <v>4.354124</v>
+        <v>4.3541239999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>1242.620000</v>
+        <v>1242.6199999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-307.845000</v>
+        <v>-307.84500000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>15685.241423</v>
+        <v>15685.241422999999</v>
       </c>
       <c r="G3" s="1">
-        <v>4.357012</v>
+        <v>4.3570120000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.010000</v>
+        <v>1268.01</v>
       </c>
       <c r="I3" s="1">
-        <v>-265.344000</v>
+        <v>-265.34399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>15695.690641</v>
+        <v>15695.690640999999</v>
       </c>
       <c r="L3" s="1">
-        <v>4.359914</v>
+        <v>4.3599139999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>1302.640000</v>
+        <v>1302.6400000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.567000</v>
+        <v>-202.56700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>15706.174581</v>
+        <v>15706.174580999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.362826</v>
+        <v>4.3628260000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1313.760000</v>
+        <v>1313.76</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.187000</v>
+        <v>-184.18700000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>15717.092549</v>
+        <v>15717.092549000001</v>
       </c>
       <c r="V3" s="1">
-        <v>4.365859</v>
+        <v>4.3658590000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>1326.590000</v>
+        <v>1326.59</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.720000</v>
+        <v>-170.72</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>15727.540247</v>
+        <v>15727.540247000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.368761</v>
+        <v>4.3687610000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1343.450000</v>
+        <v>1343.45</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.715000</v>
+        <v>-168.715</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>15738.037577</v>
+        <v>15738.037576999999</v>
       </c>
       <c r="AF3" s="1">
         <v>4.371677</v>
       </c>
       <c r="AG3" s="1">
-        <v>1356.150000</v>
+        <v>1356.15</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.635000</v>
+        <v>-178.63499999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>15748.500189</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.374583</v>
+        <v>4.3745830000000003</v>
       </c>
       <c r="AL3" s="1">
-        <v>1376.640000</v>
+        <v>1376.64</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.909000</v>
+        <v>-208.90899999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>15759.070429</v>
+        <v>15759.070428999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.377520</v>
+        <v>4.3775199999999996</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1398.200000</v>
+        <v>1398.2</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.192000</v>
+        <v>-253.19200000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>15770.349950</v>
+        <v>15770.34995</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.380653</v>
+        <v>4.3806529999999997</v>
       </c>
       <c r="AV3" s="1">
-        <v>1422.750000</v>
+        <v>1422.75</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.666000</v>
+        <v>-313.666</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>15781.399824</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.383722</v>
+        <v>4.3837219999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>1442.100000</v>
+        <v>1442.1</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.165000</v>
+        <v>-366.16500000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>15792.249319</v>
@@ -903,557 +1319,557 @@
         <v>4.386736</v>
       </c>
       <c r="BF3" s="1">
-        <v>1527.600000</v>
+        <v>1527.6</v>
       </c>
       <c r="BG3" s="1">
-        <v>-616.111000</v>
+        <v>-616.11099999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>15803.386979</v>
+        <v>15803.386979000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.389830</v>
+        <v>4.3898299999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1682.580000</v>
+        <v>1682.58</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1064.000000</v>
+        <v>-1064</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>15813.842677</v>
+        <v>15813.842677000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.392734</v>
+        <v>4.3927339999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1978.340000</v>
+        <v>1978.34</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1840.230000</v>
+        <v>-1840.23</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>15824.255192</v>
+        <v>15824.255192000001</v>
       </c>
       <c r="BT3" s="1">
         <v>4.395626</v>
       </c>
       <c r="BU3" s="1">
-        <v>2366.780000</v>
+        <v>2366.7800000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2737.840000</v>
+        <v>-2737.84</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>15834.890873</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.398581</v>
+        <v>4.3985810000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2857.750000</v>
+        <v>2857.75</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3715.000000</v>
+        <v>-3715</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>15845.975964</v>
+        <v>15845.975963999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.401660</v>
+        <v>4.4016599999999997</v>
       </c>
       <c r="CE3" s="1">
-        <v>4285.980000</v>
+        <v>4285.9799999999996</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6071.310000</v>
+        <v>-6071.31</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>15675.189042</v>
       </c>
       <c r="B4" s="1">
-        <v>4.354219</v>
+        <v>4.3542189999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>1242.670000</v>
+        <v>1242.67</v>
       </c>
       <c r="D4" s="1">
-        <v>-307.884000</v>
+        <v>-307.88400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>15685.586641</v>
       </c>
       <c r="G4" s="1">
-        <v>4.357107</v>
+        <v>4.3571070000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1267.740000</v>
+        <v>1267.74</v>
       </c>
       <c r="I4" s="1">
-        <v>-264.535000</v>
+        <v>-264.53500000000003</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>15696.037344</v>
       </c>
       <c r="L4" s="1">
-        <v>4.360010</v>
+        <v>4.3600099999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1302.180000</v>
+        <v>1302.18</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.495000</v>
+        <v>-202.495</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>15706.868057</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.363019</v>
+        <v>4.3630190000000004</v>
       </c>
       <c r="R4" s="1">
-        <v>1313.730000</v>
+        <v>1313.73</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.162000</v>
+        <v>-184.16200000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>15717.436773</v>
+        <v>15717.436772999999</v>
       </c>
       <c r="V4" s="1">
-        <v>4.365955</v>
+        <v>4.3659549999999996</v>
       </c>
       <c r="W4" s="1">
-        <v>1326.450000</v>
+        <v>1326.45</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.718000</v>
+        <v>-170.71799999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>15727.890920</v>
+        <v>15727.89092</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.368859</v>
+        <v>4.3688589999999996</v>
       </c>
       <c r="AB4" s="1">
-        <v>1343.550000</v>
+        <v>1343.55</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.786000</v>
+        <v>-168.786</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>15738.382793</v>
+        <v>15738.382793000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.371773</v>
+        <v>4.3717730000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1356.200000</v>
+        <v>1356.2</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.671000</v>
+        <v>-178.67099999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>15749.147467</v>
+        <v>15749.147467000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.374763</v>
+        <v>4.3747629999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>1376.610000</v>
+        <v>1376.61</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.924000</v>
+        <v>-208.92400000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>15759.737581</v>
+        <v>15759.737580999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.377705</v>
+        <v>4.3777049999999997</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1398.200000</v>
+        <v>1398.2</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.202000</v>
+        <v>-253.202</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>15770.770558</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.380770</v>
+        <v>4.3807700000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1422.720000</v>
+        <v>1422.72</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.684000</v>
+        <v>-313.68400000000003</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>15781.678576</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.383800</v>
+        <v>4.3837999999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1442.050000</v>
+        <v>1442.05</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.078000</v>
+        <v>-366.07799999999997</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>15792.606966</v>
+        <v>15792.606965999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.386835</v>
+        <v>4.3868349999999996</v>
       </c>
       <c r="BF4" s="1">
-        <v>1527.580000</v>
+        <v>1527.58</v>
       </c>
       <c r="BG4" s="1">
-        <v>-616.094000</v>
+        <v>-616.09400000000005</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>15803.762488</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.389934</v>
+        <v>4.3899340000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1682.610000</v>
+        <v>1682.61</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1064.150000</v>
+        <v>-1064.1500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>15814.533113</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.392926</v>
+        <v>4.3929260000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1978.380000</v>
+        <v>1978.38</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1840.490000</v>
+        <v>-1840.49</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>15824.686215</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.395746</v>
+        <v>4.3957459999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2366.670000</v>
+        <v>2366.67</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2737.600000</v>
+        <v>-2737.6</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>15835.335816</v>
+        <v>15835.335816000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.398704</v>
+        <v>4.3987040000000004</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2856.660000</v>
+        <v>2856.66</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3714.780000</v>
+        <v>-3714.78</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>15846.496764</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.401805</v>
+        <v>4.4018050000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>4293.220000</v>
+        <v>4293.22</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6081.180000</v>
+        <v>-6081.18</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>15675.528764</v>
+        <v>15675.528764000001</v>
       </c>
       <c r="B5" s="1">
-        <v>4.354314</v>
+        <v>4.3543139999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>1242.590000</v>
+        <v>1242.5899999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-307.709000</v>
+        <v>-307.709</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>15686.271616</v>
       </c>
       <c r="G5" s="1">
-        <v>4.357298</v>
+        <v>4.3572980000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1267.550000</v>
+        <v>1267.55</v>
       </c>
       <c r="I5" s="1">
-        <v>-265.260000</v>
+        <v>-265.26</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>15696.725296</v>
+        <v>15696.725296000001</v>
       </c>
       <c r="L5" s="1">
         <v>4.360201</v>
       </c>
       <c r="M5" s="1">
-        <v>1302.090000</v>
+        <v>1302.0899999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.317000</v>
+        <v>-202.31700000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>15707.220183</v>
+        <v>15707.220182999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.363117</v>
+        <v>4.3631169999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1313.820000</v>
+        <v>1313.82</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.163000</v>
+        <v>-184.16300000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>15717.781460</v>
+        <v>15717.78146</v>
       </c>
       <c r="V5" s="1">
-        <v>4.366050</v>
+        <v>4.3660500000000004</v>
       </c>
       <c r="W5" s="1">
-        <v>1326.650000</v>
+        <v>1326.65</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.656000</v>
+        <v>-170.65600000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>15728.240102</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.368956</v>
+        <v>4.3689559999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>1343.550000</v>
+        <v>1343.55</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.782000</v>
+        <v>-168.78200000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>15739.039496</v>
+        <v>15739.039495999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.371955</v>
+        <v>4.3719549999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1356.220000</v>
+        <v>1356.22</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.660000</v>
+        <v>-178.66</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>15749.547446</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.374874</v>
+        <v>4.3748740000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1376.650000</v>
+        <v>1376.65</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.924000</v>
+        <v>-208.92400000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>15760.177500</v>
+        <v>15760.1775</v>
       </c>
       <c r="AP5" s="1">
-        <v>4.377827</v>
+        <v>4.3778269999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1398.160000</v>
+        <v>1398.16</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.172000</v>
+        <v>-253.172</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>15771.162896</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.380879</v>
+        <v>4.3808790000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1422.720000</v>
+        <v>1422.72</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.656000</v>
+        <v>-313.65600000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>15782.035728</v>
+        <v>15782.035728000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.383899</v>
+        <v>4.3838990000000004</v>
       </c>
       <c r="BA5" s="1">
-        <v>1442.040000</v>
+        <v>1442.04</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.129000</v>
+        <v>-366.12900000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>15792.968514</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.386936</v>
+        <v>4.3869360000000004</v>
       </c>
       <c r="BF5" s="1">
-        <v>1527.580000</v>
+        <v>1527.58</v>
       </c>
       <c r="BG5" s="1">
-        <v>-616.087000</v>
+        <v>-616.08699999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>15804.194466</v>
+        <v>15804.194466000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.390054</v>
+        <v>4.3900540000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1682.440000</v>
+        <v>1682.44</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1064.050000</v>
+        <v>-1064.05</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>15814.672485</v>
+        <v>15814.672484999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.392965</v>
+        <v>4.3929650000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1978.600000</v>
+        <v>1978.6</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1840.420000</v>
+        <v>-1840.42</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>15825.098855</v>
@@ -1462,28 +1878,28 @@
         <v>4.395861</v>
       </c>
       <c r="BU5" s="1">
-        <v>2366.450000</v>
+        <v>2366.4499999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2737.840000</v>
+        <v>-2737.84</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>15835.794616</v>
+        <v>15835.794615999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.398832</v>
+        <v>4.3988319999999996</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2856.190000</v>
+        <v>2856.19</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3714.270000</v>
+        <v>-3714.27</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>15847.012601</v>
@@ -1492,150 +1908,150 @@
         <v>4.401948</v>
       </c>
       <c r="CE5" s="1">
-        <v>4306.770000</v>
+        <v>4306.7700000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6069.530000</v>
+        <v>-6069.53</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>15676.210763</v>
+        <v>15676.210762999999</v>
       </c>
       <c r="B6" s="1">
-        <v>4.354503</v>
+        <v>4.3545030000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="D6" s="1">
-        <v>-307.547000</v>
+        <v>-307.54700000000003</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>15686.621293</v>
       </c>
       <c r="G6" s="1">
-        <v>4.357395</v>
+        <v>4.3573950000000004</v>
       </c>
       <c r="H6" s="1">
-        <v>1267.340000</v>
+        <v>1267.3399999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-264.904000</v>
+        <v>-264.904</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>15697.071505</v>
       </c>
       <c r="L6" s="1">
-        <v>4.360298</v>
+        <v>4.3602980000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>1302.270000</v>
+        <v>1302.27</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.238000</v>
+        <v>-202.238</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>15707.570854</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.363214</v>
+        <v>4.3632140000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1313.890000</v>
+        <v>1313.89</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.255000</v>
+        <v>-184.255</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>15718.428243</v>
       </c>
       <c r="V6" s="1">
-        <v>4.366230</v>
+        <v>4.3662299999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>1326.630000</v>
+        <v>1326.63</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.650000</v>
+        <v>-170.65</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>15728.902294</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.369140</v>
+        <v>4.3691399999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>1343.430000</v>
+        <v>1343.43</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.726000</v>
+        <v>-168.726</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>15739.414472</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.372060</v>
+        <v>4.3720600000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>1356.140000</v>
+        <v>1356.14</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.673000</v>
+        <v>-178.673</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>15749.893978</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.374971</v>
+        <v>4.3749710000000004</v>
       </c>
       <c r="AL6" s="1">
-        <v>1376.630000</v>
+        <v>1376.63</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.927000</v>
+        <v>-208.92699999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>15760.538124</v>
+        <v>15760.538124000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.377927</v>
+        <v>4.3779269999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1398.210000</v>
+        <v>1398.21</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.151000</v>
+        <v>-253.15100000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>15771.524013</v>
@@ -1644,58 +2060,58 @@
         <v>4.380979</v>
       </c>
       <c r="AV6" s="1">
-        <v>1422.720000</v>
+        <v>1422.72</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.647000</v>
+        <v>-313.64699999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>15782.457295</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.384016</v>
+        <v>4.3840159999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1442.080000</v>
+        <v>1442.08</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.130000</v>
+        <v>-366.13</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>15793.393712</v>
+        <v>15793.393711999999</v>
       </c>
       <c r="BE6" s="1">
         <v>4.387054</v>
       </c>
       <c r="BF6" s="1">
-        <v>1527.590000</v>
+        <v>1527.59</v>
       </c>
       <c r="BG6" s="1">
-        <v>-616.037000</v>
+        <v>-616.03700000000003</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>15804.541676</v>
+        <v>15804.541676000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.390150</v>
+        <v>4.3901500000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1682.590000</v>
+        <v>1682.59</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1063.910000</v>
+        <v>-1063.9100000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>15815.080661</v>
@@ -1704,1842 +2120,1842 @@
         <v>4.393078</v>
       </c>
       <c r="BP6" s="1">
-        <v>1978.370000</v>
+        <v>1978.37</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1840.430000</v>
+        <v>-1840.43</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>15825.514502</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.395976</v>
+        <v>4.3959760000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2366.480000</v>
+        <v>2366.48</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2737.410000</v>
+        <v>-2737.41</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>15836.241479</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.398956</v>
+        <v>4.3989560000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2857.300000</v>
+        <v>2857.3</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3714.050000</v>
+        <v>-3714.05</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>15847.632601</v>
+        <v>15847.632600999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.402120</v>
+        <v>4.40212</v>
       </c>
       <c r="CE6" s="1">
-        <v>4292.990000</v>
+        <v>4292.99</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6058.030000</v>
+        <v>-6058.03</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>15676.562427</v>
+        <v>15676.562427000001</v>
       </c>
       <c r="B7" s="1">
-        <v>4.354601</v>
+        <v>4.3546009999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>1242.940000</v>
+        <v>1242.94</v>
       </c>
       <c r="D7" s="1">
-        <v>-307.670000</v>
+        <v>-307.67</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>15686.965517</v>
+        <v>15686.965517000001</v>
       </c>
       <c r="G7" s="1">
-        <v>4.357490</v>
+        <v>4.3574900000000003</v>
       </c>
       <c r="H7" s="1">
-        <v>1267.430000</v>
+        <v>1267.43</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.102000</v>
+        <v>-265.10199999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>15697.420723</v>
+        <v>15697.420722999999</v>
       </c>
       <c r="L7" s="1">
-        <v>4.360395</v>
+        <v>4.3603949999999996</v>
       </c>
       <c r="M7" s="1">
-        <v>1302.330000</v>
+        <v>1302.33</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.812000</v>
+        <v>-201.81200000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>15708.221570</v>
+        <v>15708.22157</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.363395</v>
+        <v>4.3633949999999997</v>
       </c>
       <c r="R7" s="1">
-        <v>1313.760000</v>
+        <v>1313.76</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.223000</v>
+        <v>-184.22300000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>15718.806692</v>
       </c>
       <c r="V7" s="1">
-        <v>4.366335</v>
+        <v>4.3663350000000003</v>
       </c>
       <c r="W7" s="1">
-        <v>1326.560000</v>
+        <v>1326.56</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.718000</v>
+        <v>-170.71799999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>15729.284678</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.369246</v>
+        <v>4.3692460000000004</v>
       </c>
       <c r="AB7" s="1">
-        <v>1343.710000</v>
+        <v>1343.71</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.927000</v>
+        <v>-168.92699999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>15739.763655</v>
+        <v>15739.763655000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.372157</v>
+        <v>4.3721569999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>1356.190000</v>
+        <v>1356.19</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.716000</v>
+        <v>-178.71600000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>15750.246602</v>
+        <v>15750.246601999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.375069</v>
+        <v>4.3750689999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1376.620000</v>
+        <v>1376.62</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.956000</v>
+        <v>-208.95599999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>15760.898187</v>
+        <v>15760.898187000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.378027</v>
+        <v>4.3780270000000003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1398.210000</v>
+        <v>1398.21</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.193000</v>
+        <v>-253.19300000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>15771.941118</v>
+        <v>15771.941118000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.381095</v>
+        <v>4.3810950000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1422.700000</v>
+        <v>1422.7</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.677000</v>
+        <v>-313.67700000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>15782.752416</v>
+        <v>15782.752415999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.384098</v>
+        <v>4.3840979999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1442.090000</v>
+        <v>1442.09</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.150000</v>
+        <v>-366.15</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>15793.691718</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.387137</v>
+        <v>4.3871370000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1527.610000</v>
+        <v>1527.61</v>
       </c>
       <c r="BG7" s="1">
-        <v>-616.073000</v>
+        <v>-616.07299999999998</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>15804.914162</v>
+        <v>15804.914161999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.390254</v>
+        <v>4.3902539999999997</v>
       </c>
       <c r="BK7" s="1">
-        <v>1682.450000</v>
+        <v>1682.45</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1064.090000</v>
+        <v>-1064.0899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>15815.476997</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.393188</v>
+        <v>4.3931880000000003</v>
       </c>
       <c r="BP7" s="1">
-        <v>1978.260000</v>
+        <v>1978.26</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1840.370000</v>
+        <v>-1840.37</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>15825.930645</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.396092</v>
+        <v>4.3960920000000003</v>
       </c>
       <c r="BU7" s="1">
-        <v>2366.410000</v>
+        <v>2366.41</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2737.360000</v>
+        <v>-2737.36</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>15836.696806</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.399082</v>
+        <v>4.3990819999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2856.760000</v>
+        <v>2856.76</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3713.690000</v>
+        <v>-3713.69</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>15848.048290</v>
+        <v>15848.048290000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.402236</v>
+        <v>4.4022360000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>4285.050000</v>
+        <v>4285.05</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6072.930000</v>
+        <v>-6072.93</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>15676.903674</v>
+        <v>15676.903673999999</v>
       </c>
       <c r="B8" s="1">
-        <v>4.354695</v>
+        <v>4.3546950000000004</v>
       </c>
       <c r="C8" s="1">
-        <v>1242.560000</v>
+        <v>1242.56</v>
       </c>
       <c r="D8" s="1">
-        <v>-307.818000</v>
+        <v>-307.81799999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>15687.612796</v>
+        <v>15687.612795999999</v>
       </c>
       <c r="G8" s="1">
-        <v>4.357670</v>
+        <v>4.3576699999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>1268.140000</v>
+        <v>1268.1400000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.063000</v>
+        <v>-265.06299999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>15698.082883</v>
+        <v>15698.082882999999</v>
       </c>
       <c r="L8" s="1">
-        <v>4.360579</v>
+        <v>4.3605790000000004</v>
       </c>
       <c r="M8" s="1">
-        <v>1302.410000</v>
+        <v>1302.4100000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.429000</v>
+        <v>-202.429</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>15708.615890</v>
+        <v>15708.615889999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.363504</v>
+        <v>4.3635039999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>1313.720000</v>
+        <v>1313.72</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.188000</v>
+        <v>-184.18799999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>15719.150234</v>
+        <v>15719.150234000001</v>
       </c>
       <c r="V8" s="1">
-        <v>4.366431</v>
+        <v>4.3664310000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>1326.520000</v>
+        <v>1326.52</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.718000</v>
+        <v>-170.71799999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>15729.633862</v>
+        <v>15729.633862000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.369343</v>
+        <v>4.3693429999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1343.500000</v>
+        <v>1343.5</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.770000</v>
+        <v>-168.77</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>15740.102919</v>
+        <v>15740.102919000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.372251</v>
+        <v>4.3722510000000003</v>
       </c>
       <c r="AG8" s="1">
-        <v>1356.220000</v>
+        <v>1356.22</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.657000</v>
+        <v>-178.65700000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>15750.664054</v>
+        <v>15750.664054000001</v>
       </c>
       <c r="AK8" s="1">
         <v>4.375184</v>
       </c>
       <c r="AL8" s="1">
-        <v>1376.620000</v>
+        <v>1376.62</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.924000</v>
+        <v>-208.92400000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>15761.312347</v>
+        <v>15761.312346999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.378142</v>
+        <v>4.3781420000000004</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1398.190000</v>
+        <v>1398.19</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.166000</v>
+        <v>-253.166</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>15772.258556</v>
+        <v>15772.258556000001</v>
       </c>
       <c r="AU8" s="1">
         <v>4.381183</v>
       </c>
       <c r="AV8" s="1">
-        <v>1422.700000</v>
+        <v>1422.7</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.653000</v>
+        <v>-313.65300000000002</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>15783.110066</v>
+        <v>15783.110065999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.384197</v>
+        <v>4.3841970000000003</v>
       </c>
       <c r="BA8" s="1">
-        <v>1442.060000</v>
+        <v>1442.06</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.146000</v>
+        <v>-366.14600000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>15794.053263</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.387237</v>
+        <v>4.3872369999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1527.640000</v>
+        <v>1527.64</v>
       </c>
       <c r="BG8" s="1">
-        <v>-616.079000</v>
+        <v>-616.07899999999995</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>15805.295618</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.390360</v>
+        <v>4.3903600000000003</v>
       </c>
       <c r="BK8" s="1">
-        <v>1682.440000</v>
+        <v>1682.44</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1063.930000</v>
+        <v>-1063.93</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>15815.898562</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.393305</v>
+        <v>4.3933049999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1978.310000</v>
+        <v>1978.31</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1840.380000</v>
+        <v>-1840.38</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>15826.347781</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.396208</v>
+        <v>4.3962079999999997</v>
       </c>
       <c r="BU8" s="1">
-        <v>2366.430000</v>
+        <v>2366.4299999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2737.320000</v>
+        <v>-2737.32</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>15837.146716</v>
+        <v>15837.146715999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>4.399207</v>
+        <v>4.3992069999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2856.240000</v>
+        <v>2856.24</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3714.800000</v>
+        <v>-3714.8</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>15848.565607</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.402379</v>
+        <v>4.4023789999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>4282.250000</v>
+        <v>4282.25</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6069.810000</v>
+        <v>-6069.81</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>15677.550495</v>
       </c>
       <c r="B9" s="1">
-        <v>4.354875</v>
+        <v>4.3548749999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>1242.720000</v>
+        <v>1242.72</v>
       </c>
       <c r="D9" s="1">
-        <v>-308.127000</v>
+        <v>-308.12700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>15688.000173</v>
       </c>
       <c r="G9" s="1">
-        <v>4.357778</v>
+        <v>4.3577779999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>1267.600000</v>
+        <v>1267.5999999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-265.270000</v>
+        <v>-265.27</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>15698.455874</v>
+        <v>15698.455873999999</v>
       </c>
       <c r="L9" s="1">
-        <v>4.360682</v>
+        <v>4.3606819999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>1302.350000</v>
+        <v>1302.3499999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.274000</v>
+        <v>-202.274</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>15708.962096</v>
+        <v>15708.962095999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.363601</v>
+        <v>4.3636010000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1313.750000</v>
+        <v>1313.75</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.156000</v>
+        <v>-184.15600000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>15719.497122</v>
+        <v>15719.497122000001</v>
       </c>
       <c r="V9" s="1">
-        <v>4.366527</v>
+        <v>4.3665269999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>1326.610000</v>
+        <v>1326.61</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.814000</v>
+        <v>-170.81399999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>15729.983044</v>
+        <v>15729.983044000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.369440</v>
+        <v>4.36944</v>
       </c>
       <c r="AB9" s="1">
-        <v>1343.330000</v>
+        <v>1343.33</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.727000</v>
+        <v>-168.727</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>15740.529510</v>
+        <v>15740.52951</v>
       </c>
       <c r="AF9" s="1">
         <v>4.372369</v>
       </c>
       <c r="AG9" s="1">
-        <v>1356.200000</v>
+        <v>1356.2</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.695000</v>
+        <v>-178.69499999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>15750.939544</v>
+        <v>15750.939544000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.375261</v>
+        <v>4.3752610000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1376.640000</v>
+        <v>1376.64</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.950000</v>
+        <v>-208.95</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>15761.616923</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.378227</v>
+        <v>4.3782269999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1398.210000</v>
+        <v>1398.21</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.160000</v>
+        <v>-253.16</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>15772.618156</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.381283</v>
+        <v>4.3812829999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1422.700000</v>
+        <v>1422.7</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.663000</v>
+        <v>-313.66300000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>15783.469133</v>
+        <v>15783.469133000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.384297</v>
+        <v>4.3842970000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1442.060000</v>
+        <v>1442.06</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.095000</v>
+        <v>-366.09500000000003</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>15794.414351</v>
+        <v>15794.414350999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>4.387337</v>
+        <v>4.3873369999999996</v>
       </c>
       <c r="BF9" s="1">
-        <v>1527.550000</v>
+        <v>1527.55</v>
       </c>
       <c r="BG9" s="1">
-        <v>-616.022000</v>
+        <v>-616.02200000000005</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>15806.064384</v>
+        <v>15806.064383999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.390573</v>
+        <v>4.3905729999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1682.480000</v>
+        <v>1682.48</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1064.080000</v>
+        <v>-1064.08</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>15816.305779</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.393418</v>
+        <v>4.3934179999999996</v>
       </c>
       <c r="BP9" s="1">
-        <v>1978.360000</v>
+        <v>1978.36</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1840.320000</v>
+        <v>-1840.32</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>15826.758981</v>
+        <v>15826.758981000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.396322</v>
+        <v>4.3963219999999996</v>
       </c>
       <c r="BU9" s="1">
-        <v>2366.190000</v>
+        <v>2366.19</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2737.020000</v>
+        <v>-2737.02</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>15837.602998</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.399334</v>
+        <v>4.3993339999999996</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2856.710000</v>
+        <v>2856.71</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3714.790000</v>
+        <v>-3714.79</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>15849.433574</v>
+        <v>15849.433574000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.402620</v>
+        <v>4.4026199999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>4292.240000</v>
+        <v>4292.24</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6057.490000</v>
+        <v>-6057.49</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>15677.927913</v>
       </c>
       <c r="B10" s="1">
-        <v>4.354980</v>
+        <v>4.3549800000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>1242.300000</v>
+        <v>1242.3</v>
       </c>
       <c r="D10" s="1">
-        <v>-307.530000</v>
+        <v>-307.52999999999997</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>15688.342907</v>
       </c>
       <c r="G10" s="1">
-        <v>4.357873</v>
+        <v>4.3578729999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>1267.720000</v>
+        <v>1267.72</v>
       </c>
       <c r="I10" s="1">
-        <v>-265.597000</v>
+        <v>-265.59699999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>15698.801054</v>
       </c>
       <c r="L10" s="1">
-        <v>4.360778</v>
+        <v>4.3607779999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>1302.360000</v>
+        <v>1302.3599999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.464000</v>
+        <v>-202.464</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>15709.311775</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.363698</v>
+        <v>4.3636980000000003</v>
       </c>
       <c r="R10" s="1">
-        <v>1313.790000</v>
+        <v>1313.79</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.173000</v>
+        <v>-184.173</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>15719.924674</v>
       </c>
       <c r="V10" s="1">
-        <v>4.366646</v>
+        <v>4.3666460000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1326.480000</v>
+        <v>1326.48</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.616000</v>
+        <v>-170.61600000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>15730.398195</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.369555</v>
+        <v>4.3695550000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1343.200000</v>
+        <v>1343.2</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.770000</v>
+        <v>-168.77</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>15740.802310</v>
+        <v>15740.802309999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.372445</v>
+        <v>4.3724449999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1356.190000</v>
+        <v>1356.19</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.693000</v>
+        <v>-178.69300000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>15751.288729</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.375358</v>
+        <v>4.3753580000000003</v>
       </c>
       <c r="AL10" s="1">
-        <v>1376.620000</v>
+        <v>1376.62</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.929000</v>
+        <v>-208.929</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>15761.976986</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.378327</v>
+        <v>4.3783269999999996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1398.190000</v>
+        <v>1398.19</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.227000</v>
+        <v>-253.227</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>15772.987676</v>
+        <v>15772.987676000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.381385</v>
+        <v>4.3813849999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1422.760000</v>
+        <v>1422.76</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.601000</v>
+        <v>-313.601</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>15784.185884</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.384496</v>
+        <v>4.3844960000000004</v>
       </c>
       <c r="BA10" s="1">
-        <v>1442.070000</v>
+        <v>1442.07</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.127000</v>
+        <v>-366.12700000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>15795.143966</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.387540</v>
+        <v>4.3875400000000004</v>
       </c>
       <c r="BF10" s="1">
-        <v>1527.610000</v>
+        <v>1527.61</v>
       </c>
       <c r="BG10" s="1">
-        <v>-616.096000</v>
+        <v>-616.096</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>15806.439887</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.390678</v>
+        <v>4.3906780000000003</v>
       </c>
       <c r="BK10" s="1">
-        <v>1682.430000</v>
+        <v>1682.43</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1063.950000</v>
+        <v>-1063.95</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>15816.708068</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.393530</v>
+        <v>4.3935300000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1978.280000</v>
+        <v>1978.28</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1840.300000</v>
+        <v>-1840.3</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>15827.177094</v>
+        <v>15827.177094000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.396438</v>
+        <v>4.3964379999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>2366.190000</v>
+        <v>2366.19</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2736.960000</v>
+        <v>-2736.96</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>15838.360887</v>
+        <v>15838.360887000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.399545</v>
+        <v>4.3995449999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2856.750000</v>
+        <v>2856.75</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3714.150000</v>
+        <v>-3714.15</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>15849.647846</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.402680</v>
+        <v>4.4026800000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4285.020000</v>
+        <v>4285.0200000000004</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6072.440000</v>
+        <v>-6072.44</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>15678.273624</v>
+        <v>15678.273623999999</v>
       </c>
       <c r="B11" s="1">
-        <v>4.355076</v>
+        <v>4.3550760000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-307.750000</v>
+        <v>-307.75</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>15688.688124</v>
       </c>
       <c r="G11" s="1">
-        <v>4.357969</v>
+        <v>4.3579689999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.210000</v>
+        <v>1268.21</v>
       </c>
       <c r="I11" s="1">
-        <v>-265.558000</v>
+        <v>-265.55799999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>15699.335245</v>
       </c>
       <c r="L11" s="1">
-        <v>4.360926</v>
+        <v>4.3609260000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1302.460000</v>
+        <v>1302.46</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.382000</v>
+        <v>-202.38200000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>15709.726430</v>
+        <v>15709.726430000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.363813</v>
+        <v>4.3638130000000004</v>
       </c>
       <c r="R11" s="1">
-        <v>1313.790000</v>
+        <v>1313.79</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.191000</v>
+        <v>-184.191</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>15720.193505</v>
+        <v>15720.193504999999</v>
       </c>
       <c r="V11" s="1">
-        <v>4.366720</v>
+        <v>4.3667199999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1326.560000</v>
+        <v>1326.56</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.580000</v>
+        <v>-170.58</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>15730.679427</v>
+        <v>15730.679426999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.369633</v>
+        <v>4.3696330000000003</v>
       </c>
       <c r="AB11" s="1">
-        <v>1343.490000</v>
+        <v>1343.49</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.606000</v>
+        <v>-168.60599999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>15741.148221</v>
+        <v>15741.148220999999</v>
       </c>
       <c r="AF11" s="1">
         <v>4.372541</v>
       </c>
       <c r="AG11" s="1">
-        <v>1356.190000</v>
+        <v>1356.19</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.645000</v>
+        <v>-178.64500000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>15751.636889</v>
+        <v>15751.636888999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.375455</v>
+        <v>4.3754549999999997</v>
       </c>
       <c r="AL11" s="1">
-        <v>1376.640000</v>
+        <v>1376.64</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.940000</v>
+        <v>-208.94</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>15762.337577</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.378427</v>
+        <v>4.3784270000000003</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1398.190000</v>
+        <v>1398.19</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.169000</v>
+        <v>-253.16900000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>15773.717788</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.381588</v>
+        <v>4.3815879999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1422.710000</v>
+        <v>1422.71</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.642000</v>
+        <v>-313.642</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>15784.546940</v>
+        <v>15784.54694</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.384596</v>
+        <v>4.3845960000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1442.080000</v>
+        <v>1442.08</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.111000</v>
+        <v>-366.11099999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>15795.523901</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.387646</v>
+        <v>4.3876460000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1527.550000</v>
+        <v>1527.55</v>
       </c>
       <c r="BG11" s="1">
-        <v>-616.039000</v>
+        <v>-616.03899999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>15806.814830</v>
+        <v>15806.814829999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.390782</v>
+        <v>4.3907819999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1682.500000</v>
+        <v>1682.5</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1064.020000</v>
+        <v>-1064.02</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>15817.426273</v>
+        <v>15817.426272999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.393730</v>
+        <v>4.3937299999999997</v>
       </c>
       <c r="BP11" s="1">
-        <v>1978.180000</v>
+        <v>1978.18</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1840.320000</v>
+        <v>-1840.32</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>15827.898803</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.396639</v>
+        <v>4.3966390000000004</v>
       </c>
       <c r="BU11" s="1">
-        <v>2366.420000</v>
+        <v>2366.42</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2736.780000</v>
+        <v>-2736.78</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>15838.484426</v>
+        <v>15838.484426000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.399579</v>
+        <v>4.3995790000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2856.360000</v>
+        <v>2856.36</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3714.350000</v>
+        <v>-3714.35</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>15850.168149</v>
+        <v>15850.168148999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.402824</v>
+        <v>4.4028239999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>4302.750000</v>
+        <v>4302.75</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6070.810000</v>
+        <v>-6070.81</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>15678.612922</v>
       </c>
       <c r="B12" s="1">
-        <v>4.355170</v>
+        <v>4.3551700000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1242.730000</v>
+        <v>1242.73</v>
       </c>
       <c r="D12" s="1">
-        <v>-307.384000</v>
+        <v>-307.38400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>15689.107738</v>
+        <v>15689.107738000001</v>
       </c>
       <c r="G12" s="1">
         <v>4.358085</v>
       </c>
       <c r="H12" s="1">
-        <v>1267.380000</v>
+        <v>1267.3800000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.704000</v>
+        <v>-265.70400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>15699.491981</v>
+        <v>15699.491980999999</v>
       </c>
       <c r="L12" s="1">
-        <v>4.360970</v>
+        <v>4.36097</v>
       </c>
       <c r="M12" s="1">
-        <v>1302.190000</v>
+        <v>1302.19</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.207000</v>
+        <v>-202.20699999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>15710.018078</v>
+        <v>15710.018077999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.363894</v>
+        <v>4.3638940000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1313.810000</v>
+        <v>1313.81</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.223000</v>
+        <v>-184.22300000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>15720.534256</v>
+        <v>15720.534256000001</v>
       </c>
       <c r="V12" s="1">
-        <v>4.366815</v>
+        <v>4.3668149999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1326.460000</v>
+        <v>1326.46</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.721000</v>
+        <v>-170.721</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>15731.029108</v>
+        <v>15731.029108000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.369730</v>
+        <v>4.3697299999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>1343.260000</v>
+        <v>1343.26</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.703000</v>
+        <v>-168.703</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>15741.490266</v>
+        <v>15741.490266000001</v>
       </c>
       <c r="AF12" s="1">
         <v>4.372636</v>
       </c>
       <c r="AG12" s="1">
-        <v>1356.070000</v>
+        <v>1356.07</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.701000</v>
+        <v>-178.70099999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>15752.336246</v>
+        <v>15752.336246000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.375649</v>
+        <v>4.3756490000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1376.630000</v>
+        <v>1376.63</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.922000</v>
+        <v>-208.922</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>15763.066200</v>
+        <v>15763.066199999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.378630</v>
+        <v>4.3786300000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1398.150000</v>
+        <v>1398.15</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.191000</v>
+        <v>-253.191</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>15774.107643</v>
+        <v>15774.107642999999</v>
       </c>
       <c r="AU12" s="1">
         <v>4.381697</v>
       </c>
       <c r="AV12" s="1">
-        <v>1422.710000</v>
+        <v>1422.71</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.661000</v>
+        <v>-313.661</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>15784.907035</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.384696</v>
+        <v>4.3846959999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1442.050000</v>
+        <v>1442.05</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.159000</v>
+        <v>-366.15899999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>15795.883533</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.387745</v>
+        <v>4.3877449999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1527.590000</v>
+        <v>1527.59</v>
       </c>
       <c r="BG12" s="1">
-        <v>-616.050000</v>
+        <v>-616.04999999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>15807.489886</v>
+        <v>15807.489885999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.390969</v>
+        <v>4.3909690000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1682.520000</v>
+        <v>1682.52</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1063.980000</v>
+        <v>-1063.98</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>15817.550241</v>
+        <v>15817.550241000001</v>
       </c>
       <c r="BO12" s="1">
         <v>4.393764</v>
       </c>
       <c r="BP12" s="1">
-        <v>1978.160000</v>
+        <v>1978.16</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1840.390000</v>
+        <v>-1840.39</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>15828.029231</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.396675</v>
+        <v>4.3966750000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2365.890000</v>
+        <v>2365.89</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2736.770000</v>
+        <v>-2736.77</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>15838.912436</v>
+        <v>15838.912436000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.399698</v>
+        <v>4.3996979999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2856.820000</v>
+        <v>2856.82</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3714.390000</v>
+        <v>-3714.39</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>15850.706806</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.402974</v>
+        <v>4.4029740000000004</v>
       </c>
       <c r="CE12" s="1">
-        <v>4288.130000</v>
+        <v>4288.13</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6056.470000</v>
+        <v>-6056.47</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>15679.035017</v>
       </c>
       <c r="B13" s="1">
-        <v>4.355288</v>
+        <v>4.3552879999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>1242.730000</v>
+        <v>1242.73</v>
       </c>
       <c r="D13" s="1">
-        <v>-307.544000</v>
+        <v>-307.54399999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>15689.397934</v>
+        <v>15689.397934000001</v>
       </c>
       <c r="G13" s="1">
-        <v>4.358166</v>
+        <v>4.3581659999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1268.110000</v>
+        <v>1268.1099999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-264.713000</v>
+        <v>-264.71300000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>15699.837197</v>
+        <v>15699.837197000001</v>
       </c>
       <c r="L13" s="1">
-        <v>4.361066</v>
+        <v>4.3610660000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1301.880000</v>
+        <v>1301.8800000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.455000</v>
+        <v>-202.45500000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>15710.367537</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.363991</v>
+        <v>4.3639910000000004</v>
       </c>
       <c r="R13" s="1">
-        <v>1313.780000</v>
+        <v>1313.78</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.273000</v>
+        <v>-184.273</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>15720.878480</v>
+        <v>15720.878479999999</v>
       </c>
       <c r="V13" s="1">
         <v>4.366911</v>
       </c>
       <c r="W13" s="1">
-        <v>1326.480000</v>
+        <v>1326.48</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.646000</v>
+        <v>-170.64599999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>15731.377794</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.369827</v>
+        <v>4.3698269999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1343.480000</v>
+        <v>1343.48</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.585000</v>
+        <v>-168.58500000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>15742.175700</v>
+        <v>15742.1757</v>
       </c>
       <c r="AF13" s="1">
         <v>4.372827</v>
       </c>
       <c r="AG13" s="1">
-        <v>1356.120000</v>
+        <v>1356.12</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.671000</v>
+        <v>-178.67099999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>15752.681494</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.375745</v>
+        <v>4.3757450000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1376.600000</v>
+        <v>1376.6</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.897000</v>
+        <v>-208.89699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>15763.446136</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.378735</v>
+        <v>4.3787349999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1398.200000</v>
+        <v>1398.2</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.190000</v>
+        <v>-253.19</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>15774.470713</v>
+        <v>15774.470713000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.381797</v>
+        <v>4.3817969999999997</v>
       </c>
       <c r="AV13" s="1">
-        <v>1422.740000</v>
+        <v>1422.74</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.622000</v>
+        <v>-313.62200000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>15785.571217</v>
+        <v>15785.571217000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>4.384881</v>
       </c>
       <c r="BA13" s="1">
-        <v>1442.080000</v>
+        <v>1442.08</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.147000</v>
+        <v>-366.14699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>15796.556078</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.387932</v>
+        <v>4.3879320000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1527.610000</v>
+        <v>1527.61</v>
       </c>
       <c r="BG13" s="1">
-        <v>-616.019000</v>
+        <v>-616.01900000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>15807.603006</v>
+        <v>15807.603005999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.391001</v>
+        <v>4.3910010000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1682.380000</v>
+        <v>1682.38</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1064.070000</v>
+        <v>-1064.07</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>15817.958976</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.393877</v>
+        <v>4.3938769999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1978.270000</v>
+        <v>1978.27</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1840.160000</v>
+        <v>-1840.16</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>15828.470696</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.396797</v>
+        <v>4.3967970000000003</v>
       </c>
       <c r="BU13" s="1">
-        <v>2366.100000</v>
+        <v>2366.1</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2736.650000</v>
+        <v>-2736.65</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>15839.327622</v>
+        <v>15839.327622000001</v>
       </c>
       <c r="BY13" s="1">
         <v>4.399813</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2856.410000</v>
+        <v>2856.41</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3714.620000</v>
+        <v>-3714.62</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>15851.247475</v>
@@ -3548,75 +3964,75 @@
         <v>4.403124</v>
       </c>
       <c r="CE13" s="1">
-        <v>4296.020000</v>
+        <v>4296.0200000000004</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6079.860000</v>
+        <v>-6079.86</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>15679.313239</v>
+        <v>15679.313238999999</v>
       </c>
       <c r="B14" s="1">
-        <v>4.355365</v>
+        <v>4.3553649999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1242.520000</v>
+        <v>1242.52</v>
       </c>
       <c r="D14" s="1">
-        <v>-307.782000</v>
+        <v>-307.78199999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>15689.741129</v>
       </c>
       <c r="G14" s="1">
-        <v>4.358261</v>
+        <v>4.3582609999999997</v>
       </c>
       <c r="H14" s="1">
-        <v>1267.530000</v>
+        <v>1267.53</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.663000</v>
+        <v>-264.66300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>15700.185884</v>
       </c>
       <c r="L14" s="1">
-        <v>4.361163</v>
+        <v>4.3611630000000003</v>
       </c>
       <c r="M14" s="1">
-        <v>1302.340000</v>
+        <v>1302.3399999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.328000</v>
+        <v>-202.328</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>15710.714959</v>
+        <v>15710.714959000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.364087</v>
+        <v>4.3640869999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>1313.660000</v>
+        <v>1313.66</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.184000</v>
+        <v>-184.184</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>15721.566579</v>
@@ -3625,28 +4041,28 @@
         <v>4.367102</v>
       </c>
       <c r="W14" s="1">
-        <v>1326.520000</v>
+        <v>1326.52</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.671000</v>
+        <v>-170.67099999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>15732.071730</v>
+        <v>15732.07173</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.370020</v>
+        <v>4.3700200000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1343.300000</v>
+        <v>1343.3</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.712000</v>
+        <v>-168.71199999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>15742.519429</v>
@@ -3655,180 +4071,180 @@
         <v>4.372922</v>
       </c>
       <c r="AG14" s="1">
-        <v>1356.160000</v>
+        <v>1356.16</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.590000</v>
+        <v>-178.59</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>15753.034646</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.375843</v>
+        <v>4.3758429999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>1376.610000</v>
+        <v>1376.61</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.912000</v>
+        <v>-208.91200000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>15763.803751</v>
+        <v>15763.803750999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>4.378834</v>
+        <v>4.3788340000000003</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1398.210000</v>
+        <v>1398.21</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.151000</v>
+        <v>-253.15100000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>15775.145274</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.381985</v>
+        <v>4.3819850000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>1422.710000</v>
+        <v>1422.71</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.610000</v>
+        <v>-313.61</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>15786.013642</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.385004</v>
+        <v>4.3850040000000003</v>
       </c>
       <c r="BA14" s="1">
-        <v>1442.050000</v>
+        <v>1442.05</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.128000</v>
+        <v>-366.12799999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>15797.000492</v>
+        <v>15797.000491999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>4.388056</v>
+        <v>4.3880559999999997</v>
       </c>
       <c r="BF14" s="1">
-        <v>1527.570000</v>
+        <v>1527.57</v>
       </c>
       <c r="BG14" s="1">
-        <v>-616.081000</v>
+        <v>-616.08100000000002</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>15807.967071</v>
+        <v>15807.967070999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.391102</v>
+        <v>4.3911020000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1682.490000</v>
+        <v>1682.49</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1063.830000</v>
+        <v>-1063.83</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>15818.356273</v>
+        <v>15818.356272999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.393988</v>
+        <v>4.3939880000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1978.320000</v>
+        <v>1978.32</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1840.270000</v>
+        <v>-1840.27</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>15828.892788</v>
+        <v>15828.892787999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.396915</v>
+        <v>4.3969149999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2366.250000</v>
+        <v>2366.25</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2736.280000</v>
+        <v>-2736.28</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>15839.777459</v>
+        <v>15839.777459000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.399938</v>
+        <v>4.3999379999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2856.830000</v>
+        <v>2856.83</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3713.220000</v>
+        <v>-3713.22</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>15851.787587</v>
+        <v>15851.787587000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.403274</v>
+        <v>4.4032739999999997</v>
       </c>
       <c r="CE14" s="1">
-        <v>4299.430000</v>
+        <v>4299.43</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6058.580000</v>
+        <v>-6058.58</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>15679.656006</v>
+        <v>15679.656005999999</v>
       </c>
       <c r="B15" s="1">
-        <v>4.355460</v>
+        <v>4.3554599999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1242.550000</v>
+        <v>1242.55</v>
       </c>
       <c r="D15" s="1">
-        <v>-308.010000</v>
+        <v>-308.01</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>15690.089817</v>
@@ -3837,43 +4253,43 @@
         <v>4.358358</v>
       </c>
       <c r="H15" s="1">
-        <v>1267.060000</v>
+        <v>1267.06</v>
       </c>
       <c r="I15" s="1">
-        <v>-264.805000</v>
+        <v>-264.80500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>15700.872874</v>
+        <v>15700.872874000001</v>
       </c>
       <c r="L15" s="1">
-        <v>4.361354</v>
+        <v>4.3613540000000004</v>
       </c>
       <c r="M15" s="1">
-        <v>1302.050000</v>
+        <v>1302.05</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.411000</v>
+        <v>-202.411</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>15711.411341</v>
+        <v>15711.411341000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.364281</v>
+        <v>4.3642810000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1313.780000</v>
+        <v>1313.78</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.142000</v>
+        <v>-184.142</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>15721.909167</v>
@@ -3882,58 +4298,58 @@
         <v>4.367197</v>
       </c>
       <c r="W15" s="1">
-        <v>1326.560000</v>
+        <v>1326.56</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.670000</v>
+        <v>-170.67</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>15732.423361</v>
+        <v>15732.423360999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.370118</v>
+        <v>4.3701179999999997</v>
       </c>
       <c r="AB15" s="1">
-        <v>1343.150000</v>
+        <v>1343.15</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.701000</v>
+        <v>-168.70099999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>15742.862660</v>
+        <v>15742.862660000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.373017</v>
+        <v>4.3730169999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1356.180000</v>
+        <v>1356.18</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.618000</v>
+        <v>-178.61799999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>15753.684900</v>
+        <v>15753.6849</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.376024</v>
+        <v>4.3760240000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1376.610000</v>
+        <v>1376.61</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.922000</v>
+        <v>-208.922</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>15764.526919</v>
@@ -3942,103 +4358,103 @@
         <v>4.379035</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1398.180000</v>
+        <v>1398.18</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.183000</v>
+        <v>-253.18299999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>15775.595672</v>
+        <v>15775.595671999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.382110</v>
+        <v>4.3821099999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1422.700000</v>
+        <v>1422.7</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.631000</v>
+        <v>-313.63099999999997</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>15786.373210</v>
+        <v>15786.37321</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.385104</v>
+        <v>4.3851040000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1442.050000</v>
+        <v>1442.05</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.095000</v>
+        <v>-366.09500000000003</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>15797.362571</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.388156</v>
+        <v>4.3881560000000004</v>
       </c>
       <c r="BF15" s="1">
-        <v>1527.570000</v>
+        <v>1527.57</v>
       </c>
       <c r="BG15" s="1">
-        <v>-616.040000</v>
+        <v>-616.04</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>15808.336092</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.391204</v>
+        <v>4.3912040000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1682.410000</v>
+        <v>1682.41</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1064.050000</v>
+        <v>-1064.05</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>15818.778831</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.394105</v>
+        <v>4.3941049999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1978.130000</v>
+        <v>1978.13</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1840.080000</v>
+        <v>-1840.08</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>15829.321793</v>
+        <v>15829.321792999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.397034</v>
+        <v>4.3970339999999997</v>
       </c>
       <c r="BU15" s="1">
-        <v>2366.330000</v>
+        <v>2366.33</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2736.180000</v>
+        <v>-2736.18</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>15840.197074</v>
@@ -4047,90 +4463,90 @@
         <v>4.400055</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2856.130000</v>
+        <v>2856.13</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3713.620000</v>
+        <v>-3713.62</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>15852.325284</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.403424</v>
+        <v>4.4034240000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>4283.900000</v>
+        <v>4283.8999999999996</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6070.480000</v>
+        <v>-6070.48</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>15679.995771</v>
       </c>
       <c r="B16" s="1">
-        <v>4.355554</v>
+        <v>4.3555539999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>1242.470000</v>
+        <v>1242.47</v>
       </c>
       <c r="D16" s="1">
-        <v>-307.657000</v>
+        <v>-307.65699999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>15690.783224</v>
+        <v>15690.783224000001</v>
       </c>
       <c r="G16" s="1">
-        <v>4.358551</v>
+        <v>4.3585510000000003</v>
       </c>
       <c r="H16" s="1">
-        <v>1267.290000</v>
+        <v>1267.29</v>
       </c>
       <c r="I16" s="1">
-        <v>-265.573000</v>
+        <v>-265.57299999999998</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>15701.220570</v>
+        <v>15701.220569999999</v>
       </c>
       <c r="L16" s="1">
-        <v>4.361450</v>
+        <v>4.3614499999999996</v>
       </c>
       <c r="M16" s="1">
-        <v>1302.370000</v>
+        <v>1302.3699999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.166000</v>
+        <v>-202.166</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>15711.757580</v>
+        <v>15711.75758</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.364377</v>
+        <v>4.3643770000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1313.790000</v>
+        <v>1313.79</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.138000</v>
+        <v>-184.13800000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>15722.251902</v>
@@ -4139,345 +4555,345 @@
         <v>4.367292</v>
       </c>
       <c r="W16" s="1">
-        <v>1326.540000</v>
+        <v>1326.54</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.709000</v>
+        <v>-170.709</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>15733.079599</v>
+        <v>15733.079599000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.370300</v>
+        <v>4.3703000000000003</v>
       </c>
       <c r="AB16" s="1">
-        <v>1343.390000</v>
+        <v>1343.39</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.786000</v>
+        <v>-168.786</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>15743.511463</v>
+        <v>15743.511463000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.373198</v>
+        <v>4.3731980000000004</v>
       </c>
       <c r="AG16" s="1">
-        <v>1356.150000</v>
+        <v>1356.15</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.671000</v>
+        <v>-178.67099999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>15754.080423</v>
+        <v>15754.080422999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.376133</v>
+        <v>4.3761330000000003</v>
       </c>
       <c r="AL16" s="1">
-        <v>1376.610000</v>
+        <v>1376.61</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.936000</v>
+        <v>-208.93600000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>15764.882087</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.379134</v>
+        <v>4.3791339999999996</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1398.180000</v>
+        <v>1398.18</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.131000</v>
+        <v>-253.131</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>15775.961815</v>
+        <v>15775.961815000001</v>
       </c>
       <c r="AU16" s="1">
         <v>4.382212</v>
       </c>
       <c r="AV16" s="1">
-        <v>1422.690000</v>
+        <v>1422.69</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.622000</v>
+        <v>-313.62200000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>15786.732313</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.385203</v>
+        <v>4.3852029999999997</v>
       </c>
       <c r="BA16" s="1">
-        <v>1442.030000</v>
+        <v>1442.03</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.076000</v>
+        <v>-366.07600000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>15798.027210</v>
+        <v>15798.02721</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.388341</v>
+        <v>4.3883409999999996</v>
       </c>
       <c r="BF16" s="1">
-        <v>1527.590000</v>
+        <v>1527.59</v>
       </c>
       <c r="BG16" s="1">
-        <v>-616.057000</v>
+        <v>-616.05700000000002</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>15808.757164</v>
+        <v>15808.757164000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.391321</v>
+        <v>4.3913209999999996</v>
       </c>
       <c r="BK16" s="1">
-        <v>1682.290000</v>
+        <v>1682.29</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1063.960000</v>
+        <v>-1063.96</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>15819.178110</v>
+        <v>15819.178110000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.394216</v>
+        <v>4.3942160000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1978.150000</v>
+        <v>1978.15</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1840.050000</v>
+        <v>-1840.05</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>15829.739424</v>
+        <v>15829.739423999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.397150</v>
+        <v>4.3971499999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2365.880000</v>
+        <v>2365.88</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2736.110000</v>
+        <v>-2736.11</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>15840.621700</v>
+        <v>15840.6217</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.400173</v>
+        <v>4.4001729999999997</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2855.890000</v>
+        <v>2855.89</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3713.710000</v>
+        <v>-3713.71</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>15852.867378</v>
+        <v>15852.867378000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.403574</v>
+        <v>4.4035739999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4303.000000</v>
+        <v>4303</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6070.520000</v>
+        <v>-6070.52</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>15680.677766</v>
+        <v>15680.677766000001</v>
       </c>
       <c r="B17" s="1">
-        <v>4.355744</v>
+        <v>4.3557439999999996</v>
       </c>
       <c r="C17" s="1">
-        <v>1242.980000</v>
+        <v>1242.98</v>
       </c>
       <c r="D17" s="1">
-        <v>-307.672000</v>
+        <v>-307.67200000000003</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>15691.127455</v>
       </c>
       <c r="G17" s="1">
-        <v>4.358647</v>
+        <v>4.3586470000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>1267.740000</v>
+        <v>1267.74</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.364000</v>
+        <v>-264.36399999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>15701.567273</v>
+        <v>15701.567273000001</v>
       </c>
       <c r="L17" s="1">
-        <v>4.361546</v>
+        <v>4.3615459999999997</v>
       </c>
       <c r="M17" s="1">
-        <v>1302.180000</v>
+        <v>1302.18</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.529000</v>
+        <v>-202.529</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>15712.109212</v>
+        <v>15712.109211999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.364475</v>
+        <v>4.3644749999999997</v>
       </c>
       <c r="R17" s="1">
-        <v>1313.850000</v>
+        <v>1313.85</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.194000</v>
+        <v>-184.19399999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>15722.899909</v>
       </c>
       <c r="V17" s="1">
-        <v>4.367472</v>
+        <v>4.3674720000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1326.640000</v>
+        <v>1326.64</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.771000</v>
+        <v>-170.77099999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>15733.471408</v>
+        <v>15733.471407999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.370409</v>
+        <v>4.3704090000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>1343.390000</v>
+        <v>1343.39</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.848000</v>
+        <v>-168.84800000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>15743.895329</v>
+        <v>15743.895329000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.373304</v>
+        <v>4.3733040000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1356.150000</v>
+        <v>1356.15</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.715000</v>
+        <v>-178.715</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>15754.427380</v>
+        <v>15754.427379999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.376230</v>
+        <v>4.3762299999999996</v>
       </c>
       <c r="AL17" s="1">
-        <v>1376.560000</v>
+        <v>1376.56</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.890000</v>
+        <v>-208.89</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>15765.247142</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.379235</v>
+        <v>4.3792350000000004</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1398.140000</v>
+        <v>1398.14</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.174000</v>
+        <v>-253.17400000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>15776.327735</v>
+        <v>15776.327735000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>4.382313</v>
+        <v>4.3823129999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1422.720000</v>
+        <v>1422.72</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.621000</v>
+        <v>-313.62099999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>15787.149946</v>
@@ -4486,195 +4902,195 @@
         <v>4.385319</v>
       </c>
       <c r="BA17" s="1">
-        <v>1442.070000</v>
+        <v>1442.07</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.094000</v>
+        <v>-366.09399999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>15798.474105</v>
+        <v>15798.474104999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.388465</v>
+        <v>4.3884650000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1527.540000</v>
+        <v>1527.54</v>
       </c>
       <c r="BG17" s="1">
-        <v>-616.007000</v>
+        <v>-616.00699999999995</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>15809.100900</v>
+        <v>15809.100899999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.391417</v>
+        <v>4.3914169999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1682.480000</v>
+        <v>1682.48</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1063.920000</v>
+        <v>-1063.92</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>15819.596238</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.394332</v>
+        <v>4.3943320000000003</v>
       </c>
       <c r="BP17" s="1">
-        <v>1978.230000</v>
+        <v>1978.23</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1840.160000</v>
+        <v>-1840.16</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>15830.168960</v>
+        <v>15830.168960000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.397269</v>
+        <v>4.3972689999999997</v>
       </c>
       <c r="BU17" s="1">
-        <v>2366.290000</v>
+        <v>2366.29</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2735.820000</v>
+        <v>-2735.82</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>15841.070067</v>
+        <v>15841.070067000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.400297</v>
+        <v>4.4002970000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2856.730000</v>
+        <v>2856.73</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3713.520000</v>
+        <v>-3713.52</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>15853.407558</v>
+        <v>15853.407558000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.403724</v>
+        <v>4.4037240000000004</v>
       </c>
       <c r="CE17" s="1">
-        <v>4288.590000</v>
+        <v>4288.59</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6055.390000</v>
+        <v>-6055.39</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>15681.022982</v>
       </c>
       <c r="B18" s="1">
-        <v>4.355840</v>
+        <v>4.3558399999999997</v>
       </c>
       <c r="C18" s="1">
-        <v>1242.780000</v>
+        <v>1242.78</v>
       </c>
       <c r="D18" s="1">
-        <v>-307.673000</v>
+        <v>-307.673</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>15691.474184</v>
+        <v>15691.474184000001</v>
       </c>
       <c r="G18" s="1">
-        <v>4.358743</v>
+        <v>4.3587429999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>1267.130000</v>
+        <v>1267.1300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-265.086000</v>
+        <v>-265.08600000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>15702.218985</v>
       </c>
       <c r="L18" s="1">
-        <v>4.361727</v>
+        <v>4.3617270000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1302.200000</v>
+        <v>1302.2</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.107000</v>
+        <v>-202.107</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>15712.764923</v>
+        <v>15712.764923000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.364657</v>
+        <v>4.3646570000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>1313.720000</v>
+        <v>1313.72</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.243000</v>
+        <v>-184.24299999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>15723.282124</v>
+        <v>15723.282123999999</v>
       </c>
       <c r="V18" s="1">
         <v>4.367578</v>
       </c>
       <c r="W18" s="1">
-        <v>1326.450000</v>
+        <v>1326.45</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.710000</v>
+        <v>-170.71</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>15733.819599</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.370505</v>
+        <v>4.3705049999999996</v>
       </c>
       <c r="AB18" s="1">
-        <v>1343.320000</v>
+        <v>1343.32</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.913000</v>
+        <v>-168.91300000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>15744.237073</v>
@@ -4683,285 +5099,285 @@
         <v>4.373399</v>
       </c>
       <c r="AG18" s="1">
-        <v>1356.080000</v>
+        <v>1356.08</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.675000</v>
+        <v>-178.67500000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>15754.774116</v>
+        <v>15754.774116000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.376326</v>
+        <v>4.3763259999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>1376.600000</v>
+        <v>1376.6</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.882000</v>
+        <v>-208.88200000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>15765.664741</v>
+        <v>15765.664741000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.379351</v>
+        <v>4.3793509999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1398.180000</v>
+        <v>1398.18</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.149000</v>
+        <v>-253.149</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>15776.742886</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.382429</v>
+        <v>4.3824290000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1422.710000</v>
+        <v>1422.71</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.632000</v>
+        <v>-313.63200000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>15787.451051</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.385403</v>
+        <v>4.3854030000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>1442.080000</v>
+        <v>1442.08</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.097000</v>
+        <v>-366.09699999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>15798.848586</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.388569</v>
+        <v>4.3885690000000004</v>
       </c>
       <c r="BF18" s="1">
-        <v>1527.560000</v>
+        <v>1527.56</v>
       </c>
       <c r="BG18" s="1">
-        <v>-616.002000</v>
+        <v>-616.00199999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>15809.488763</v>
+        <v>15809.488762999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.391525</v>
+        <v>4.3915249999999997</v>
       </c>
       <c r="BK18" s="1">
-        <v>1682.370000</v>
+        <v>1682.37</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1063.990000</v>
+        <v>-1063.99</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>15819.991256</v>
+        <v>15819.991255999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.394442</v>
+        <v>4.3944419999999997</v>
       </c>
       <c r="BP18" s="1">
-        <v>1978.150000</v>
+        <v>1978.15</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1840.140000</v>
+        <v>-1840.14</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>15830.817727</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.397449</v>
+        <v>4.3974489999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2366.180000</v>
+        <v>2366.1799999999998</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2735.720000</v>
+        <v>-2735.72</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>15841.499570</v>
+        <v>15841.49957</v>
       </c>
       <c r="BY18" s="1">
         <v>4.400417</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2856.530000</v>
+        <v>2856.53</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3713.120000</v>
+        <v>-3713.12</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>15853.945218</v>
+        <v>15853.945218000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.403874</v>
+        <v>4.4038740000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4294.420000</v>
+        <v>4294.42</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6079.400000</v>
+        <v>-6079.4</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>15681.366181</v>
+        <v>15681.366180999999</v>
       </c>
       <c r="B19" s="1">
-        <v>4.355935</v>
+        <v>4.3559349999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>1243.220000</v>
+        <v>1243.22</v>
       </c>
       <c r="D19" s="1">
-        <v>-307.915000</v>
+        <v>-307.91500000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>15692.132838</v>
       </c>
       <c r="G19" s="1">
-        <v>4.358926</v>
+        <v>4.3589260000000003</v>
       </c>
       <c r="H19" s="1">
-        <v>1267.570000</v>
+        <v>1267.57</v>
       </c>
       <c r="I19" s="1">
-        <v>-265.101000</v>
+        <v>-265.101</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>15702.601737</v>
+        <v>15702.601737000001</v>
       </c>
       <c r="L19" s="1">
         <v>4.361834</v>
       </c>
       <c r="M19" s="1">
-        <v>1302.380000</v>
+        <v>1302.3800000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.557000</v>
+        <v>-202.55699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>15713.154282</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.364765</v>
+        <v>4.3647650000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1313.680000</v>
+        <v>1313.68</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.164000</v>
+        <v>-184.16399999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>15723.627308</v>
+        <v>15723.627307999999</v>
       </c>
       <c r="V19" s="1">
-        <v>4.367674</v>
+        <v>4.3676740000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1326.460000</v>
+        <v>1326.46</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.645000</v>
+        <v>-170.64500000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>15734.170766</v>
+        <v>15734.170765999999</v>
       </c>
       <c r="AA19" s="1">
         <v>4.370603</v>
       </c>
       <c r="AB19" s="1">
-        <v>1343.530000</v>
+        <v>1343.53</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.688000</v>
+        <v>-168.68799999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>15744.581794</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.373495</v>
+        <v>4.3734950000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1356.150000</v>
+        <v>1356.15</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.622000</v>
+        <v>-178.62200000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>15755.204114</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.376446</v>
+        <v>4.3764459999999996</v>
       </c>
       <c r="AL19" s="1">
-        <v>1376.580000</v>
+        <v>1376.58</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.911000</v>
+        <v>-208.911</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>15765.966805</v>
@@ -4970,709 +5386,709 @@
         <v>4.379435</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1398.160000</v>
+        <v>1398.16</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.183000</v>
+        <v>-253.18299999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>15777.055394</v>
+        <v>15777.055394000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.382515</v>
+        <v>4.3825149999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>1422.700000</v>
+        <v>1422.7</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.635000</v>
+        <v>-313.63499999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>15787.805160</v>
+        <v>15787.80516</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.385501</v>
+        <v>4.3855009999999996</v>
       </c>
       <c r="BA19" s="1">
-        <v>1442.030000</v>
+        <v>1442.03</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.089000</v>
+        <v>-366.089</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>15799.194794</v>
+        <v>15799.194793999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.388665</v>
+        <v>4.3886649999999996</v>
       </c>
       <c r="BF19" s="1">
-        <v>1527.570000</v>
+        <v>1527.57</v>
       </c>
       <c r="BG19" s="1">
-        <v>-616.008000</v>
+        <v>-616.00800000000004</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>15809.862746</v>
+        <v>15809.862746000001</v>
       </c>
       <c r="BJ19" s="1">
         <v>4.391629</v>
       </c>
       <c r="BK19" s="1">
-        <v>1682.560000</v>
+        <v>1682.56</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1063.820000</v>
+        <v>-1063.82</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>15820.413181</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.394559</v>
+        <v>4.3945590000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1978.240000</v>
+        <v>1978.24</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1840.090000</v>
+        <v>-1840.09</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>15831.014671</v>
+        <v>15831.014671000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.397504</v>
+        <v>4.3975039999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>2365.820000</v>
+        <v>2365.8200000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2735.720000</v>
+        <v>-2735.72</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>15841.921201</v>
+        <v>15841.921200999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.400534</v>
+        <v>4.4005340000000004</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2855.840000</v>
+        <v>2855.84</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3713.280000</v>
+        <v>-3713.28</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>15854.485824</v>
+        <v>15854.485823999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.404024</v>
+        <v>4.4040239999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>4299.270000</v>
+        <v>4299.2700000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6058.800000</v>
+        <v>-6058.8</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>15682.028868</v>
+        <v>15682.028867999999</v>
       </c>
       <c r="B20" s="1">
-        <v>4.356119</v>
+        <v>4.3561189999999996</v>
       </c>
       <c r="C20" s="1">
-        <v>1242.680000</v>
+        <v>1242.68</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.281000</v>
+        <v>-308.28100000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>15692.506358</v>
+        <v>15692.506358000001</v>
       </c>
       <c r="G20" s="1">
-        <v>4.359030</v>
+        <v>4.3590299999999997</v>
       </c>
       <c r="H20" s="1">
-        <v>1267.460000</v>
+        <v>1267.46</v>
       </c>
       <c r="I20" s="1">
-        <v>-265.189000</v>
+        <v>-265.18900000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>15702.949592</v>
+        <v>15702.949592000001</v>
       </c>
       <c r="L20" s="1">
-        <v>4.361930</v>
+        <v>4.3619300000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1302.350000</v>
+        <v>1302.3499999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.438000</v>
+        <v>-202.43799999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>15713.503002</v>
+        <v>15713.503001999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.364862</v>
+        <v>4.3648619999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>1313.740000</v>
+        <v>1313.74</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.181000</v>
+        <v>-184.18100000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>15723.975500</v>
+        <v>15723.9755</v>
       </c>
       <c r="V20" s="1">
-        <v>4.367771</v>
+        <v>4.3677710000000003</v>
       </c>
       <c r="W20" s="1">
-        <v>1326.570000</v>
+        <v>1326.57</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.745000</v>
+        <v>-170.745</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>15734.589918</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.370719</v>
+        <v>4.3707190000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1343.510000</v>
+        <v>1343.51</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.490000</v>
+        <v>-168.49</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>15745.000448</v>
+        <v>15745.000448000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.373611</v>
+        <v>4.3736110000000004</v>
       </c>
       <c r="AG20" s="1">
-        <v>1356.150000</v>
+        <v>1356.15</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.642000</v>
+        <v>-178.642</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>15755.484388</v>
+        <v>15755.484388000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.376523</v>
+        <v>4.3765229999999997</v>
       </c>
       <c r="AL20" s="1">
-        <v>1376.590000</v>
+        <v>1376.59</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.881000</v>
+        <v>-208.881</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>15766.325413</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.379535</v>
+        <v>4.3795349999999997</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1398.170000</v>
+        <v>1398.17</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.153000</v>
+        <v>-253.15299999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>15777.419925</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.382617</v>
+        <v>4.3826169999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1422.690000</v>
+        <v>1422.69</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.613000</v>
+        <v>-313.613</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>15788.164264</v>
+        <v>15788.164263999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.385601</v>
+        <v>4.3856010000000003</v>
       </c>
       <c r="BA20" s="1">
-        <v>1442.020000</v>
+        <v>1442.02</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.095000</v>
+        <v>-366.09500000000003</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>15799.915480</v>
+        <v>15799.91548</v>
       </c>
       <c r="BE20" s="1">
         <v>4.388865</v>
       </c>
       <c r="BF20" s="1">
-        <v>1527.540000</v>
+        <v>1527.54</v>
       </c>
       <c r="BG20" s="1">
-        <v>-615.993000</v>
+        <v>-615.99300000000005</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>15810.614220</v>
+        <v>15810.614219999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.391837</v>
+        <v>4.3918369999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1682.270000</v>
+        <v>1682.27</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1063.940000</v>
+        <v>-1063.94</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>15820.812428</v>
+        <v>15820.812427999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.394670</v>
+        <v>4.3946699999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1978.020000</v>
+        <v>1978.02</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1839.980000</v>
+        <v>-1839.98</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>15831.426318</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.397618</v>
+        <v>4.3976179999999996</v>
       </c>
       <c r="BU20" s="1">
-        <v>2366.060000</v>
+        <v>2366.06</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2735.780000</v>
+        <v>-2735.78</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>15842.343291</v>
+        <v>15842.343290999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.400651</v>
+        <v>4.4006509999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2856.740000</v>
+        <v>2856.74</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3714.150000</v>
+        <v>-3714.15</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>15855.333518</v>
+        <v>15855.333517999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.404259</v>
+        <v>4.4042589999999997</v>
       </c>
       <c r="CE20" s="1">
-        <v>4297.060000</v>
+        <v>4297.0600000000004</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6074.990000</v>
+        <v>-6074.99</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>15682.391411</v>
+        <v>15682.391411000001</v>
       </c>
       <c r="B21" s="1">
-        <v>4.356220</v>
+        <v>4.3562200000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>1242.790000</v>
+        <v>1242.79</v>
       </c>
       <c r="D21" s="1">
-        <v>-307.693000</v>
+        <v>-307.69299999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>15692.852636</v>
       </c>
       <c r="G21" s="1">
-        <v>4.359126</v>
+        <v>4.3591259999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>1267.450000</v>
+        <v>1267.45</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.567000</v>
+        <v>-264.56700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>15703.297818</v>
+        <v>15703.297817999999</v>
       </c>
       <c r="L21" s="1">
-        <v>4.362027</v>
+        <v>4.3620270000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>1302.350000</v>
+        <v>1302.3499999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.194000</v>
+        <v>-202.19399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>15713.850888</v>
+        <v>15713.850888000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.364959</v>
+        <v>4.3649589999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1313.830000</v>
+        <v>1313.83</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.171000</v>
+        <v>-184.17099999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>15724.396605</v>
       </c>
       <c r="V21" s="1">
-        <v>4.367888</v>
+        <v>4.3678879999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>1326.510000</v>
+        <v>1326.51</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.594000</v>
+        <v>-170.59399999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>15734.879054</v>
+        <v>15734.879054000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.370800</v>
+        <v>4.3708</v>
       </c>
       <c r="AB21" s="1">
-        <v>1343.430000</v>
+        <v>1343.43</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.903000</v>
+        <v>-168.90299999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>15745.289584</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.373692</v>
+        <v>4.3736920000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1356.190000</v>
+        <v>1356.19</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.663000</v>
+        <v>-178.66300000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>15755.830563</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.376620</v>
+        <v>4.37662</v>
       </c>
       <c r="AL21" s="1">
-        <v>1376.600000</v>
+        <v>1376.6</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.896000</v>
+        <v>-208.89599999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>15766.686035</v>
+        <v>15766.686035000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.379635</v>
+        <v>4.3796350000000004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1398.170000</v>
+        <v>1398.17</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.155000</v>
+        <v>-253.155</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>15777.784982</v>
+        <v>15777.784981999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.382718</v>
+        <v>4.3827179999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>1422.710000</v>
+        <v>1422.71</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.598000</v>
+        <v>-313.59800000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>15788.882967</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.385801</v>
+        <v>4.3858009999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1442.030000</v>
+        <v>1442.03</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.098000</v>
+        <v>-366.09800000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>15800.305335</v>
+        <v>15800.305334999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.388974</v>
+        <v>4.3889740000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1527.530000</v>
+        <v>1527.53</v>
       </c>
       <c r="BG21" s="1">
-        <v>-616.008000</v>
+        <v>-616.00800000000004</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>15810.991975</v>
+        <v>15810.991975000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.391942</v>
+        <v>4.3919420000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1682.500000</v>
+        <v>1682.5</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1063.740000</v>
+        <v>-1063.74</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>15821.231547</v>
+        <v>15821.231546999999</v>
       </c>
       <c r="BO21" s="1">
         <v>4.394787</v>
       </c>
       <c r="BP21" s="1">
-        <v>1978.100000</v>
+        <v>1978.1</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1840.070000</v>
+        <v>-1840.07</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>15832.144062</v>
+        <v>15832.144061999999</v>
       </c>
       <c r="BT21" s="1">
         <v>4.397818</v>
       </c>
       <c r="BU21" s="1">
-        <v>2366.120000</v>
+        <v>2366.12</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2735.450000</v>
+        <v>-2735.45</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>15843.079327</v>
+        <v>15843.079326999999</v>
       </c>
       <c r="BY21" s="1">
         <v>4.400855</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2856.460000</v>
+        <v>2856.46</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3713.510000</v>
+        <v>-3713.51</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>15855.565647</v>
+        <v>15855.565646999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.404324</v>
+        <v>4.4043239999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4297.690000</v>
+        <v>4297.6899999999996</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6076.420000</v>
+        <v>-6076.42</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>15682.732162</v>
       </c>
       <c r="B22" s="1">
-        <v>4.356314</v>
+        <v>4.3563140000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>1242.840000</v>
+        <v>1242.8399999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-307.822000</v>
+        <v>-307.822</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>15693.193814</v>
       </c>
       <c r="G22" s="1">
-        <v>4.359221</v>
+        <v>4.3592209999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>1267.520000</v>
+        <v>1267.52</v>
       </c>
       <c r="I22" s="1">
-        <v>-265.468000</v>
+        <v>-265.46800000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>15703.706028</v>
+        <v>15703.706028000001</v>
       </c>
       <c r="L22" s="1">
-        <v>4.362141</v>
+        <v>4.3621410000000003</v>
       </c>
       <c r="M22" s="1">
-        <v>1302.490000</v>
+        <v>1302.49</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.147000</v>
+        <v>-202.14699999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>15714.280698</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.365078</v>
+        <v>4.3650779999999996</v>
       </c>
       <c r="R22" s="1">
-        <v>1313.820000</v>
+        <v>1313.82</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.205000</v>
+        <v>-184.20500000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>15724.678828</v>
@@ -5681,73 +6097,73 @@
         <v>4.367966</v>
       </c>
       <c r="W22" s="1">
-        <v>1326.380000</v>
+        <v>1326.38</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.788000</v>
+        <v>-170.78800000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>15735.227246</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.370896</v>
+        <v>4.3708960000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1343.460000</v>
+        <v>1343.46</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.607000</v>
+        <v>-168.607</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>15745.631838</v>
+        <v>15745.631837999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.373787</v>
+        <v>4.3737870000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1356.190000</v>
+        <v>1356.19</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.746000</v>
+        <v>-178.74600000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>15756.180253</v>
       </c>
       <c r="AK22" s="1">
-        <v>4.376717</v>
+        <v>4.3767170000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1376.620000</v>
+        <v>1376.62</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.903000</v>
+        <v>-208.90299999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>15767.404243</v>
+        <v>15767.404243000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.379835</v>
+        <v>4.3798349999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1398.170000</v>
+        <v>1398.17</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.200000</v>
+        <v>-253.2</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>15778.525013</v>
@@ -5756,121 +6172,121 @@
         <v>4.382924</v>
       </c>
       <c r="AV22" s="1">
-        <v>1422.680000</v>
+        <v>1422.68</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.652000</v>
+        <v>-313.65199999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>15789.243062</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.385901</v>
+        <v>4.3859009999999996</v>
       </c>
       <c r="BA22" s="1">
-        <v>1442.040000</v>
+        <v>1442.04</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.082000</v>
+        <v>-366.08199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>15800.688743</v>
+        <v>15800.688743000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.389080</v>
+        <v>4.3890799999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1527.570000</v>
+        <v>1527.57</v>
       </c>
       <c r="BG22" s="1">
-        <v>-615.991000</v>
+        <v>-615.99099999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>15811.366120</v>
+        <v>15811.366120000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>4.392046</v>
+        <v>4.3920459999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1682.360000</v>
+        <v>1682.36</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1063.950000</v>
+        <v>-1063.95</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>15821.930907</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.394981</v>
+        <v>4.3949809999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1978.230000</v>
+        <v>1978.23</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1839.860000</v>
+        <v>-1839.86</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>15832.256754</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.397849</v>
+        <v>4.3978489999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2366.030000</v>
+        <v>2366.0300000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2735.470000</v>
+        <v>-2735.47</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>15843.190927</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.400886</v>
+        <v>4.4008859999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2856.210000</v>
+        <v>2856.21</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3712.890000</v>
+        <v>-3712.89</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>15856.083933</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.404468</v>
+        <v>4.4044679999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>4303.870000</v>
+        <v>4303.87</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6059.660000</v>
+        <v>-6059.66</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>15683.157234</v>
       </c>
@@ -5878,43 +6294,43 @@
         <v>4.356433</v>
       </c>
       <c r="C23" s="1">
-        <v>1242.800000</v>
+        <v>1242.8</v>
       </c>
       <c r="D23" s="1">
-        <v>-308.003000</v>
+        <v>-308.00299999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>15693.610954</v>
       </c>
       <c r="G23" s="1">
-        <v>4.359336</v>
+        <v>4.3593359999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1267.650000</v>
+        <v>1267.6500000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-265.293000</v>
+        <v>-265.29300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>15703.999158</v>
+        <v>15703.999158000001</v>
       </c>
       <c r="L23" s="1">
         <v>4.362222</v>
       </c>
       <c r="M23" s="1">
-        <v>1302.620000</v>
+        <v>1302.6199999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.282000</v>
+        <v>-202.28200000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>15714.564408</v>
@@ -5923,13 +6339,13 @@
         <v>4.365157</v>
       </c>
       <c r="R23" s="1">
-        <v>1313.810000</v>
+        <v>1313.81</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.202000</v>
+        <v>-184.202</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>15725.020074</v>
@@ -5938,210 +6354,210 @@
         <v>4.368061</v>
       </c>
       <c r="W23" s="1">
-        <v>1326.460000</v>
+        <v>1326.46</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.722000</v>
+        <v>-170.72200000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>15735.577949</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.370994</v>
+        <v>4.3709939999999996</v>
       </c>
       <c r="AB23" s="1">
-        <v>1343.400000</v>
+        <v>1343.4</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.718000</v>
+        <v>-168.71799999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>15745.977569</v>
+        <v>15745.977569000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.373883</v>
+        <v>4.3738830000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1356.150000</v>
+        <v>1356.15</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.641000</v>
+        <v>-178.64099999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>15756.878114</v>
+        <v>15756.878113999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.376911</v>
+        <v>4.3769109999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>1376.620000</v>
+        <v>1376.62</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.914000</v>
+        <v>-208.91399999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>15767.766323</v>
       </c>
       <c r="AP23" s="1">
-        <v>4.379935</v>
+        <v>4.3799349999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1398.130000</v>
+        <v>1398.13</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.174000</v>
+        <v>-253.17400000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>15778.906963</v>
+        <v>15778.906962999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.383030</v>
+        <v>4.3830299999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1422.690000</v>
+        <v>1422.69</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.603000</v>
+        <v>-313.60300000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>15789.600677</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.386000</v>
+        <v>4.3860000000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1442.010000</v>
+        <v>1442.01</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.101000</v>
+        <v>-366.101</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>15801.351399</v>
+        <v>15801.351398999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.389264</v>
+        <v>4.3892639999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1527.520000</v>
+        <v>1527.52</v>
       </c>
       <c r="BG23" s="1">
-        <v>-615.999000</v>
+        <v>-615.99900000000002</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>15812.047624</v>
+        <v>15812.047624000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.392235</v>
+        <v>4.3922350000000003</v>
       </c>
       <c r="BK23" s="1">
-        <v>1682.370000</v>
+        <v>1682.37</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1063.720000</v>
+        <v>-1063.72</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>15822.067307</v>
+        <v>15822.067306999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.395019</v>
+        <v>4.3950189999999996</v>
       </c>
       <c r="BP23" s="1">
-        <v>1978.090000</v>
+        <v>1978.09</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1839.950000</v>
+        <v>-1839.95</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>15832.697070</v>
+        <v>15832.69707</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.397971</v>
+        <v>4.3979710000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2365.730000</v>
+        <v>2365.73</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2735.380000</v>
+        <v>-2735.38</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>15843.617517</v>
+        <v>15843.617517000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.401005</v>
+        <v>4.4010049999999996</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2855.630000</v>
+        <v>2855.63</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3712.970000</v>
+        <v>-3712.97</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>15856.601261</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.404611</v>
+        <v>4.4046110000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4286.840000</v>
+        <v>4286.84</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6055.430000</v>
+        <v>-6055.43</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>15683.435986</v>
       </c>
       <c r="B24" s="1">
-        <v>4.356510</v>
+        <v>4.3565100000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-307.600000</v>
+        <v>-307.60000000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>15693.886693</v>
@@ -6150,88 +6566,88 @@
         <v>4.359413</v>
       </c>
       <c r="H24" s="1">
-        <v>1268.440000</v>
+        <v>1268.44</v>
       </c>
       <c r="I24" s="1">
-        <v>-265.247000</v>
+        <v>-265.24700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>15704.344838</v>
+        <v>15704.344838000001</v>
       </c>
       <c r="L24" s="1">
-        <v>4.362318</v>
+        <v>4.3623180000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1301.990000</v>
+        <v>1301.99</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.156000</v>
+        <v>-202.15600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>15714.908669</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.365252</v>
+        <v>4.3652519999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1313.730000</v>
+        <v>1313.73</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.237000</v>
+        <v>-184.23699999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>15725.364298</v>
       </c>
       <c r="V24" s="1">
-        <v>4.368157</v>
+        <v>4.3681570000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1326.460000</v>
+        <v>1326.46</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.720000</v>
+        <v>-170.72</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>15736.274796</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.371187</v>
+        <v>4.3711869999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1343.400000</v>
+        <v>1343.4</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.833000</v>
+        <v>-168.833</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>15746.664355</v>
+        <v>15746.664355000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.374073</v>
+        <v>4.3740730000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1356.100000</v>
+        <v>1356.1</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.641000</v>
+        <v>-178.64099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>15757.227792</v>
@@ -6240,422 +6656,422 @@
         <v>4.377008</v>
       </c>
       <c r="AL24" s="1">
-        <v>1376.640000</v>
+        <v>1376.64</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.901000</v>
+        <v>-208.90100000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>15768.126882</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.380035</v>
+        <v>4.3800350000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1398.130000</v>
+        <v>1398.13</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.156000</v>
+        <v>-253.15600000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>15779.270499</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.383131</v>
+        <v>4.3831309999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>1422.670000</v>
+        <v>1422.67</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.614000</v>
+        <v>-313.61399999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>15790.264853</v>
+        <v>15790.264853000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.386185</v>
+        <v>4.3861850000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1442.050000</v>
+        <v>1442.05</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.081000</v>
+        <v>-366.08100000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>15801.768070</v>
+        <v>15801.76807</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.389380</v>
+        <v>4.3893800000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1527.560000</v>
+        <v>1527.56</v>
       </c>
       <c r="BG24" s="1">
-        <v>-615.949000</v>
+        <v>-615.94899999999996</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>15812.158740</v>
+        <v>15812.158740000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.392266</v>
+        <v>4.3922660000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1682.340000</v>
+        <v>1682.34</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1063.810000</v>
+        <v>-1063.81</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>15822.476506</v>
+        <v>15822.476506000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.395132</v>
+        <v>4.3951320000000003</v>
       </c>
       <c r="BP24" s="1">
-        <v>1978.010000</v>
+        <v>1978.01</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1839.810000</v>
+        <v>-1839.81</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>15833.110733</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.398086</v>
+        <v>4.3980860000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>2366.220000</v>
+        <v>2366.2199999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2735.670000</v>
+        <v>-2735.67</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>15844.039581</v>
+        <v>15844.039581000001</v>
       </c>
       <c r="BY24" s="1">
         <v>4.401122</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2856.780000</v>
+        <v>2856.78</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3713.360000</v>
+        <v>-3713.36</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>15857.121564</v>
+        <v>15857.121563999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.404756</v>
+        <v>4.4047559999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4283.160000</v>
+        <v>4283.16</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6070.880000</v>
+        <v>-6070.88</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>15683.777730</v>
+        <v>15683.77773</v>
       </c>
       <c r="B25" s="1">
-        <v>4.356605</v>
+        <v>4.3566050000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1242.790000</v>
+        <v>1242.79</v>
       </c>
       <c r="D25" s="1">
-        <v>-307.912000</v>
+        <v>-307.91199999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>15694.228435</v>
+        <v>15694.228435000001</v>
       </c>
       <c r="G25" s="1">
-        <v>4.359508</v>
+        <v>4.3595079999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1267.320000</v>
+        <v>1267.32</v>
       </c>
       <c r="I25" s="1">
-        <v>-265.082000</v>
+        <v>-265.08199999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>15704.692534</v>
       </c>
       <c r="L25" s="1">
-        <v>4.362415</v>
+        <v>4.3624150000000004</v>
       </c>
       <c r="M25" s="1">
-        <v>1302.080000</v>
+        <v>1302.08</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.431000</v>
+        <v>-202.43100000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>15715.602572</v>
       </c>
       <c r="Q25" s="1">
-        <v>4.365445</v>
+        <v>4.3654450000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1313.690000</v>
+        <v>1313.69</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.121000</v>
+        <v>-184.12100000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>15726.051257</v>
+        <v>15726.051256999999</v>
       </c>
       <c r="V25" s="1">
-        <v>4.368348</v>
+        <v>4.3683480000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1326.480000</v>
+        <v>1326.48</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.715000</v>
+        <v>-170.715</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>15736.625468</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.371285</v>
+        <v>4.3712850000000003</v>
       </c>
       <c r="AB25" s="1">
-        <v>1343.610000</v>
+        <v>1343.61</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.683000</v>
+        <v>-168.68299999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>15747.009214</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.374169</v>
+        <v>4.3741690000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1356.190000</v>
+        <v>1356.19</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.621000</v>
+        <v>-178.62100000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>15757.577504</v>
+        <v>15757.577504000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.377105</v>
+        <v>4.3771050000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1376.580000</v>
+        <v>1376.58</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.906000</v>
+        <v>-208.90600000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>15768.800946</v>
+        <v>15768.800945999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.380222</v>
+        <v>4.3802219999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1398.180000</v>
+        <v>1398.18</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.146000</v>
+        <v>-253.14599999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>15779.970850</v>
+        <v>15779.97085</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.383325</v>
+        <v>4.3833250000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1422.680000</v>
+        <v>1422.68</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.599000</v>
+        <v>-313.59899999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>15790.678987</v>
+        <v>15790.678986999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.386300</v>
+        <v>4.3863000000000003</v>
       </c>
       <c r="BA25" s="1">
-        <v>1442.060000</v>
+        <v>1442.06</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.105000</v>
+        <v>-366.10500000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>15802.158885</v>
+        <v>15802.158885000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.389489</v>
+        <v>4.3894890000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1527.560000</v>
+        <v>1527.56</v>
       </c>
       <c r="BG25" s="1">
-        <v>-615.986000</v>
+        <v>-615.98599999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>15812.522326</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.392367</v>
+        <v>4.3923670000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1682.540000</v>
+        <v>1682.54</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1063.850000</v>
+        <v>-1063.8499999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>15822.871817</v>
+        <v>15822.871816999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.395242</v>
+        <v>4.3952419999999996</v>
       </c>
       <c r="BP25" s="1">
-        <v>1978.000000</v>
+        <v>1978</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1839.870000</v>
+        <v>-1839.87</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>15833.546715</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.398207</v>
+        <v>4.3982070000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>2365.820000</v>
+        <v>2365.8200000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2735.430000</v>
+        <v>-2735.43</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>15844.462173</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.401239</v>
+        <v>4.4012390000000003</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2856.280000</v>
+        <v>2856.28</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3712.800000</v>
+        <v>-3712.8</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>15857.640379</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.404900</v>
+        <v>4.4048999999999996</v>
       </c>
       <c r="CE25" s="1">
-        <v>4284.180000</v>
+        <v>4284.18</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6063.740000</v>
+        <v>-6063.74</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>15684.117985</v>
+        <v>15684.117985000001</v>
       </c>
       <c r="B26" s="1">
-        <v>4.356699</v>
+        <v>4.3566989999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1242.810000</v>
+        <v>1242.81</v>
       </c>
       <c r="D26" s="1">
-        <v>-307.753000</v>
+        <v>-307.75299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>15694.574644</v>
@@ -6664,240 +7080,241 @@
         <v>4.359604</v>
       </c>
       <c r="H26" s="1">
-        <v>1267.420000</v>
+        <v>1267.42</v>
       </c>
       <c r="I26" s="1">
-        <v>-265.927000</v>
+        <v>-265.92700000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>15705.383494</v>
       </c>
       <c r="L26" s="1">
-        <v>4.362607</v>
+        <v>4.3626069999999997</v>
       </c>
       <c r="M26" s="1">
-        <v>1302.050000</v>
+        <v>1302.05</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.759000</v>
+        <v>-201.75899999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>15715.953207</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.365543</v>
+        <v>4.3655429999999997</v>
       </c>
       <c r="R26" s="1">
-        <v>1313.800000</v>
+        <v>1313.8</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.141000</v>
+        <v>-184.14099999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>15726.395482</v>
       </c>
       <c r="V26" s="1">
-        <v>4.368443</v>
+        <v>4.3684430000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1326.500000</v>
+        <v>1326.5</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.710000</v>
+        <v>-170.71</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>15736.971707</v>
+        <v>15736.971707000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.371381</v>
+        <v>4.3713810000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>1343.420000</v>
+        <v>1343.42</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.563000</v>
+        <v>-168.56299999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>15747.357406</v>
+        <v>15747.357405999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.374266</v>
+        <v>4.3742660000000004</v>
       </c>
       <c r="AG26" s="1">
-        <v>1356.170000</v>
+        <v>1356.17</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.648000</v>
+        <v>-178.648</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>15758.228224</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.377286</v>
+        <v>4.3772859999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>1376.600000</v>
+        <v>1376.6</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.923000</v>
+        <v>-208.923</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>15769.234944</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.380343</v>
+        <v>4.3803429999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1398.150000</v>
+        <v>1398.15</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.125000</v>
+        <v>-253.125</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>15780.393938</v>
+        <v>15780.393937999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.383443</v>
+        <v>4.3834429999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1422.680000</v>
+        <v>1422.68</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.611000</v>
+        <v>-313.61099999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>15791.060900</v>
+        <v>15791.0609</v>
       </c>
       <c r="AZ26" s="1">
         <v>4.386406</v>
       </c>
       <c r="BA26" s="1">
-        <v>1442.020000</v>
+        <v>1442.02</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.086000</v>
+        <v>-366.08600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>15802.517988</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.389588</v>
+        <v>4.3895879999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1527.570000</v>
+        <v>1527.57</v>
       </c>
       <c r="BG26" s="1">
-        <v>-615.930000</v>
+        <v>-615.92999999999995</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>15812.902727</v>
+        <v>15812.902727000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.392473</v>
+        <v>4.3924729999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1682.370000</v>
+        <v>1682.37</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1063.940000</v>
+        <v>-1063.94</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>15823.294905</v>
+        <v>15823.294905000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.395360</v>
+        <v>4.3953600000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1978.180000</v>
+        <v>1978.18</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1839.860000</v>
+        <v>-1839.86</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>15833.942523</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.398317</v>
+        <v>4.3983169999999996</v>
       </c>
       <c r="BU26" s="1">
-        <v>2365.690000</v>
+        <v>2365.69</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2735.290000</v>
+        <v>-2735.29</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>15844.890727</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.401359</v>
+        <v>4.4013590000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2855.840000</v>
+        <v>2855.84</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3713.500000</v>
+        <v>-3713.5</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>15858.192924</v>
+        <v>15858.192924000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.405054</v>
+        <v>4.4050539999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>4288.630000</v>
+        <v>4288.63</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6053.990000</v>
+        <v>-6053.99</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>